--- a/MOCAP/Data/Session_Data_Cohorte2.xlsx
+++ b/MOCAP/Data/Session_Data_Cohorte2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="56">
   <si>
     <t xml:space="preserve">Env Drift</t>
   </si>
@@ -210,7 +210,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,14 +231,12 @@
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -481,7 +478,10 @@
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.59"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -511,16 +511,16 @@
       <c r="B4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -559,21 +559,22 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="13" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="65" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,7 +647,9 @@
       <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -680,7 +683,9 @@
       <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -714,7 +719,9 @@
       <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -748,7 +755,9 @@
       <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -782,7 +791,9 @@
       <c r="K6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -816,7 +827,9 @@
       <c r="K7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -1122,7 +1135,9 @@
       <c r="K18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -1210,7 +1225,9 @@
       <c r="K21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -1244,7 +1261,9 @@
       <c r="K22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -1280,7 +1299,9 @@
       <c r="K23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -1312,7 +1333,9 @@
       <c r="K24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -1344,7 +1367,9 @@
       <c r="K25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -1378,7 +1403,9 @@
       <c r="K26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
@@ -2716,21 +2743,21 @@
   <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="34.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="14" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,7 +2831,9 @@
       <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -2838,7 +2867,9 @@
       <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -2872,7 +2903,9 @@
       <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -2906,7 +2939,9 @@
       <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2940,7 +2975,9 @@
       <c r="K6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -3498,7 +3535,9 @@
       <c r="K17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -3532,7 +3571,9 @@
       <c r="K18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -3566,7 +3607,9 @@
       <c r="K19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -3630,7 +3673,9 @@
       <c r="K21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -3666,7 +3711,9 @@
       <c r="K22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="P22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3703,7 +3750,9 @@
       <c r="K23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -3739,7 +3788,9 @@
       <c r="K24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
@@ -5965,21 +6016,21 @@
   <dimension ref="A1:BN70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="66" min="14" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="14" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,6 +6102,9 @@
       <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -6083,6 +6137,9 @@
       <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -6115,6 +6172,9 @@
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -6147,6 +6207,9 @@
       <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -6182,6 +6245,9 @@
       <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -6264,6 +6330,9 @@
         <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6402,6 +6471,9 @@
       <c r="K14" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -6460,6 +6532,9 @@
       <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L16" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -6642,6 +6717,9 @@
       <c r="K23" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -6674,6 +6752,9 @@
       <c r="K24" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -6706,6 +6787,9 @@
       <c r="K25" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L25" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="n">
@@ -6738,6 +6822,9 @@
       <c r="K26" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L26" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="n">
@@ -6768,6 +6855,9 @@
         <v>23</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -9551,13 +9641,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BO73"/>
+  <dimension ref="A1:BL73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.16"/>
@@ -9571,7 +9661,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="67" min="15" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="15" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="65" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9637,6 +9728,9 @@
       <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -9663,6 +9757,9 @@
       <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -9689,6 +9786,9 @@
       <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -9715,6 +9815,9 @@
       <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -9844,6 +9947,9 @@
       </c>
       <c r="H10" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10125,6 +10231,9 @@
       <c r="H21" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
@@ -10151,6 +10260,9 @@
       <c r="H22" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -10177,6 +10289,9 @@
       <c r="H23" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -10203,6 +10318,9 @@
       <c r="H24" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -10278,6 +10396,9 @@
       <c r="H27" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="n">
@@ -10329,6 +10450,9 @@
       </c>
       <c r="H29" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,11 +11516,11 @@
       <c r="I45" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J45" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
-      <c r="BO45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="n">
@@ -11420,11 +11544,11 @@
       <c r="G46" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J46" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
-      <c r="BO46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="n">
@@ -11448,11 +11572,11 @@
       <c r="G47" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J47" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
-      <c r="BO47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="n">
@@ -11479,11 +11603,11 @@
       <c r="I48" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J48" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="n">
@@ -11507,11 +11631,11 @@
       <c r="G49" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J49" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="BM49" s="1"/>
-      <c r="BN49" s="1"/>
-      <c r="BO49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
@@ -11537,9 +11661,6 @@
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
@@ -11565,9 +11686,6 @@
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="n">
@@ -11593,9 +11711,6 @@
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="BM52" s="1"/>
-      <c r="BN52" s="1"/>
-      <c r="BO52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="n">
@@ -11619,11 +11734,11 @@
       <c r="G53" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J53" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="n">
@@ -11649,9 +11764,6 @@
       </c>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-      <c r="BO54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="n">
@@ -11675,11 +11787,11 @@
       <c r="G55" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J55" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-      <c r="BO55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="n">
@@ -11705,9 +11817,6 @@
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="n">
@@ -11731,11 +11840,11 @@
       <c r="G57" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J57" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="n">
@@ -11761,9 +11870,6 @@
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="BM58" s="1"/>
-      <c r="BN58" s="1"/>
-      <c r="BO58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11" t="n">
@@ -11786,9 +11892,6 @@
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="BM59" s="1"/>
-      <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="n">
@@ -11811,9 +11914,6 @@
       </c>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
-      <c r="BO60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="n">
@@ -11836,9 +11936,6 @@
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="n">
@@ -12068,20 +12165,20 @@
   </sheetPr>
   <dimension ref="A1:BL57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="47.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="47.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="15" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="15" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,6 +12454,9 @@
       <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="n">
@@ -12409,6 +12509,9 @@
       <c r="H13" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="n">
@@ -12435,6 +12538,9 @@
       <c r="H14" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -12461,6 +12567,9 @@
       <c r="H15" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -12579,6 +12688,9 @@
       <c r="H20" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -12604,6 +12716,9 @@
       </c>
       <c r="H21" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12790,6 +12905,9 @@
       <c r="I28" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="n">
@@ -12816,6 +12934,9 @@
       <c r="H29" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J29" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="n">
@@ -12842,6 +12963,9 @@
       <c r="H30" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J30" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="n">
@@ -12868,6 +12992,9 @@
       <c r="H31" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J31" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="n">
@@ -12920,6 +13047,9 @@
       <c r="H33" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J33" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="n">
@@ -12946,6 +13076,9 @@
       <c r="H34" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="J34" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="n">
@@ -12971,6 +13104,9 @@
       </c>
       <c r="H35" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13988,10 +14124,10 @@
   <dimension ref="A1:BL61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.17"/>
@@ -14002,6 +14138,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="15" style="3" width="11.52"/>
   </cols>
   <sheetData>
@@ -14068,6 +14205,9 @@
       <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="n">
@@ -14091,6 +14231,9 @@
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
@@ -14114,6 +14257,9 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -14137,6 +14283,9 @@
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="n">
@@ -14160,6 +14309,9 @@
       <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
@@ -14183,6 +14335,9 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
@@ -14206,6 +14361,9 @@
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
@@ -14227,6 +14385,9 @@
         <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14570,6 +14731,9 @@
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="n">
@@ -14596,6 +14760,9 @@
       <c r="H15" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="n">
@@ -14622,6 +14789,9 @@
       <c r="H16" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="n">
@@ -14648,6 +14818,9 @@
       <c r="H17" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="n">
@@ -14677,6 +14850,9 @@
       <c r="I18" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="n">
@@ -14703,6 +14879,9 @@
       <c r="H19" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="n">
@@ -14729,6 +14908,9 @@
       <c r="H20" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
@@ -14755,6 +14937,9 @@
       <c r="H21" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
@@ -14781,6 +14966,9 @@
       <c r="H22" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J22" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
@@ -14807,6 +14995,9 @@
       <c r="H23" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J23" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="n">
@@ -14833,6 +15024,9 @@
       <c r="H24" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="n">
@@ -14858,6 +15052,9 @@
       </c>
       <c r="H25" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16214,16 +16411,21 @@
   </sheetPr>
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="0" width="11.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16320,8 +16522,12 @@
         <v>52</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16350,8 +16556,12 @@
         <v>53</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16380,8 +16590,12 @@
         <v>53</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16410,8 +16624,12 @@
         <v>53</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16437,7 +16655,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="0"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
@@ -16467,8 +16685,12 @@
         <v>53</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16521,6 +16743,7 @@
       <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="n">
@@ -16544,6 +16767,7 @@
       <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="n">
@@ -16957,6 +17181,7 @@
       <c r="I17" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="n">
@@ -16980,6 +17205,7 @@
       <c r="I18" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="n">
@@ -17003,6 +17229,7 @@
       <c r="I19" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="n">
@@ -17032,6 +17259,12 @@
       <c r="I20" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="n">
@@ -17061,6 +17294,12 @@
       <c r="I21" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
@@ -17090,6 +17329,12 @@
       <c r="I22" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="n">
@@ -17119,6 +17364,12 @@
       <c r="I23" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="n">
@@ -17148,6 +17399,12 @@
       <c r="I24" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="n">
@@ -17177,6 +17434,12 @@
       <c r="I25" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="n">
@@ -17202,6 +17465,12 @@
       </c>
       <c r="H26" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MOCAP/Data/Session_Data_Cohorte2.xlsx
+++ b/MOCAP/Data/Session_Data_Cohorte2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MOCAP PARAM" sheetId="1" r:id="rId1"/>
-    <sheet name="259" sheetId="2" r:id="rId2"/>
-    <sheet name="260" sheetId="3" r:id="rId3"/>
-    <sheet name="262" sheetId="4" r:id="rId4"/>
-    <sheet name="266" sheetId="5" r:id="rId5"/>
-    <sheet name="267" sheetId="6" r:id="rId6"/>
-    <sheet name="271" sheetId="7" r:id="rId7"/>
-    <sheet name="272" sheetId="8" r:id="rId8"/>
+    <sheet name="Data recap" sheetId="9" r:id="rId2"/>
+    <sheet name="259" sheetId="2" r:id="rId3"/>
+    <sheet name="260" sheetId="3" r:id="rId4"/>
+    <sheet name="262" sheetId="4" r:id="rId5"/>
+    <sheet name="266" sheetId="5" r:id="rId6"/>
+    <sheet name="267" sheetId="6" r:id="rId7"/>
+    <sheet name="271" sheetId="7" r:id="rId8"/>
+    <sheet name="272" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="68">
   <si>
     <t>Env Drift</t>
   </si>
@@ -200,6 +201,42 @@
   <si>
     <t>LEFT KNEE + RIGHT FOOT MISSING</t>
   </si>
+  <si>
+    <t>Inversion avec 271</t>
+  </si>
+  <si>
+    <t>Last update :</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>CSV exploitable (gap-filled) par Session</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>5/8</t>
+  </si>
+  <si>
+    <t>0/11</t>
+  </si>
+  <si>
+    <t>0/9</t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <t>7/15</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -282,12 +319,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -353,6 +543,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +1011,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="25">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1">
+      <c r="B3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27">
+        <v>3</v>
+      </c>
+      <c r="E4" s="27">
+        <v>4</v>
+      </c>
+      <c r="F4" s="27">
+        <v>5</v>
+      </c>
+      <c r="G4" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="31">
+        <v>259</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="32">
+        <v>260</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="32">
+        <v>262</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="32">
+        <v>266</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32">
+        <v>267</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="32">
+        <v>271</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" thickBot="1">
+      <c r="A11" s="33">
+        <v>272</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L18" sqref="L18:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -2962,12 +3409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L24" sqref="L15:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -6231,12 +6678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -9867,7 +10314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL73"/>
   <sheetViews>
@@ -12385,12 +12832,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L21" sqref="L11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -14339,7 +14786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL61"/>
   <sheetViews>
@@ -16623,12 +17070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -18620,7 +19067,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -18698,7 +19145,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -18776,7 +19223,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -18854,7 +19301,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -18932,7 +19379,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -19010,7 +19457,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -19088,7 +19535,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -19166,7 +19613,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -19244,7 +19691,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -19322,7 +19769,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -19400,7 +19847,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -19478,7 +19925,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>

--- a/MOCAP/Data/Session_Data_Cohorte2.xlsx
+++ b/MOCAP/Data/Session_Data_Cohorte2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MOCAP PARAM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="68">
   <si>
     <t>Env Drift</t>
   </si>
@@ -546,9 +546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +577,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1028,196 +1028,196 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>3</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>4</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>5</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>259</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>260</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>262</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>266</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>267</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>271</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" thickBot="1">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>272</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:BN64"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L26"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1528,7 +1528,9 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
@@ -1866,7 +1868,9 @@
       <c r="I20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
@@ -3413,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L24" sqref="L15:L24"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -5668,9 +5672,6 @@
       <c r="G43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="44" spans="1:64">
       <c r="A44" s="11">
@@ -6682,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN70"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L27"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -9171,9 +9172,7 @@
       <c r="H55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="J55" s="17"/>
       <c r="M55" s="3"/>
       <c r="BM55" s="1"/>
       <c r="BN55" s="1"/>
@@ -9234,9 +9233,7 @@
       <c r="H57" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J57" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="J57" s="17"/>
       <c r="M57" s="3"/>
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
@@ -10318,8 +10315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL73"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -12836,8 +12833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L21" sqref="L11:L21"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J37" sqref="J28:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -14790,8 +14787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -17074,8 +17071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
